--- a/data/trans_orig/P5_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCDAB7B9-58D0-4DC0-8C7F-7B9B21DF409A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58404B48-15BB-4264-A091-BB4E5418E7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9EDC56AD-1184-4424-BCA9-191E148E68EE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9D434FA2-8D5B-4A29-9B4E-4147C2D47922}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="291">
   <si>
     <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2007 (Tasa respuesta: 73,1%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>42,13%</t>
   </si>
   <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
   </si>
   <si>
     <t>41,05%</t>
   </si>
   <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
   </si>
   <si>
     <t>41,57%</t>
   </si>
   <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>57,87%</t>
   </si>
   <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
   </si>
   <si>
     <t>58,95%</t>
   </si>
   <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
   </si>
   <si>
     <t>58,43%</t>
   </si>
   <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>26,86%</t>
   </si>
   <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
   </si>
   <si>
     <t>26,27%</t>
   </si>
   <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
   </si>
   <si>
     <t>26,58%</t>
   </si>
   <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
   </si>
   <si>
     <t>73,14%</t>
   </si>
   <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
   </si>
   <si>
     <t>73,73%</t>
   </si>
   <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
   </si>
   <si>
     <t>73,42%</t>
   </si>
   <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,655 +197,613 @@
     <t>25,12%</t>
   </si>
   <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2012 (Tasa respuesta: 69,37%)</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2016 (Tasa respuesta: 75,92%)</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
     <t>19,04%</t>
   </si>
   <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
   </si>
   <si>
     <t>80,96%</t>
   </si>
   <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2012 (Tasa respuesta: 69,37%)</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2015 (Tasa respuesta: 75,92%)</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
+    <t>86,76%</t>
   </si>
   <si>
     <t>80,89%</t>
   </si>
   <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
   </si>
   <si>
     <t>82,5%</t>
   </si>
   <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
   </si>
   <si>
     <t>18,71%</t>
@@ -854,31 +812,31 @@
     <t>14,05%</t>
   </si>
   <si>
-    <t>24,52%</t>
+    <t>24,6%</t>
   </si>
   <si>
     <t>20,25%</t>
   </si>
   <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
   </si>
   <si>
     <t>19,42%</t>
   </si>
   <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
   </si>
   <si>
     <t>81,29%</t>
   </si>
   <si>
-    <t>75,48%</t>
+    <t>75,4%</t>
   </si>
   <si>
     <t>85,95%</t>
@@ -887,73 +845,73 @@
     <t>79,75%</t>
   </si>
   <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
   </si>
   <si>
     <t>80,58%</t>
   </si>
   <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
   </si>
   <si>
     <t>17,26%</t>
   </si>
   <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
   </si>
   <si>
     <t>19,09%</t>
   </si>
   <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
   </si>
   <si>
     <t>18,12%</t>
   </si>
   <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
   </si>
   <si>
     <t>82,74%</t>
   </si>
   <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
   </si>
   <si>
     <t>80,91%</t>
   </si>
   <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
   </si>
   <si>
     <t>81,88%</t>
   </si>
   <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE71487D-16C8-43FB-80F1-86B1CB693006}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561107EE-FB54-4C97-8864-1B8A8DEA87E5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1722,7 +1680,7 @@
         <v>731</v>
       </c>
       <c r="N8" s="7">
-        <v>487458</v>
+        <v>487457</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1773,7 +1731,7 @@
         <v>997</v>
       </c>
       <c r="N9" s="7">
-        <v>663953</v>
+        <v>663952</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2116,7 +2074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04F71C3-22CD-4304-9FE9-F445E0C67EAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E96B40B-7929-4DEB-9132-28FF59E7A70B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2867,7 +2825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36241355-ED60-4652-80A4-1ABFB3CA91E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABA4456-8DDE-4AF7-A5DC-BB3A305AC009}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2991,13 +2949,13 @@
         <v>20814</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -3006,13 +2964,13 @@
         <v>12298</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>49</v>
@@ -3021,13 +2979,13 @@
         <v>33112</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3000,13 @@
         <v>30423</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="H5" s="7">
         <v>45</v>
@@ -3057,13 +3015,13 @@
         <v>28343</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>89</v>
@@ -3072,13 +3030,13 @@
         <v>58766</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3104,13 @@
         <v>132938</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>181</v>
@@ -3161,13 +3119,13 @@
         <v>118753</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>376</v>
@@ -3176,13 +3134,13 @@
         <v>251691</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3155,13 @@
         <v>246928</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>343</v>
@@ -3212,13 +3170,13 @@
         <v>228802</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="M8" s="7">
         <v>692</v>
@@ -3227,13 +3185,13 @@
         <v>475730</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>197</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,13 +3259,13 @@
         <v>59642</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>78</v>
@@ -3316,13 +3274,13 @@
         <v>52411</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>166</v>
@@ -3331,13 +3289,13 @@
         <v>112053</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3310,13 @@
         <v>80288</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>124</v>
@@ -3367,13 +3325,13 @@
         <v>83616</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>242</v>
@@ -3382,13 +3340,13 @@
         <v>163904</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3414,13 @@
         <v>213394</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>217</v>
+        <v>114</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="H13" s="7">
         <v>277</v>
@@ -3471,13 +3429,13 @@
         <v>183462</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>143</v>
       </c>
       <c r="M13" s="7">
         <v>591</v>
@@ -3486,13 +3444,13 @@
         <v>396856</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3465,13 @@
         <v>357639</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>124</v>
       </c>
       <c r="H14" s="7">
         <v>512</v>
@@ -3522,13 +3480,13 @@
         <v>340761</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="M14" s="7">
         <v>1023</v>
@@ -3537,13 +3495,13 @@
         <v>698400</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,7 +3576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7486BF7A-CD65-48E7-AAA1-5D7FACC66C50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75389FE-6BD3-42E7-85B2-9D0FC2567127}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3635,7 +3593,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3742,13 +3700,13 @@
         <v>13727</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -3757,13 +3715,13 @@
         <v>7901</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>38</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -3772,13 +3730,13 @@
         <v>21627</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3751,13 @@
         <v>45030</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="H5" s="7">
         <v>56</v>
@@ -3808,13 +3766,13 @@
         <v>43301</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>47</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="M5" s="7">
         <v>120</v>
@@ -3823,13 +3781,13 @@
         <v>88332</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3855,13 @@
         <v>78870</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="H7" s="7">
         <v>112</v>
@@ -3912,13 +3870,13 @@
         <v>86001</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="M7" s="7">
         <v>222</v>
@@ -3927,13 +3885,13 @@
         <v>164871</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3906,13 @@
         <v>413494</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="H8" s="7">
         <v>531</v>
@@ -3963,13 +3921,13 @@
         <v>363967</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="M8" s="7">
         <v>1077</v>
@@ -3978,13 +3936,13 @@
         <v>777462</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4010,13 @@
         <v>32488</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -4067,13 +4025,13 @@
         <v>30646</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="M10" s="7">
         <v>86</v>
@@ -4082,13 +4040,13 @@
         <v>63134</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4061,13 @@
         <v>141193</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="H11" s="7">
         <v>187</v>
@@ -4118,13 +4076,13 @@
         <v>120724</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="M11" s="7">
         <v>381</v>
@@ -4133,13 +4091,13 @@
         <v>261917</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4165,13 @@
         <v>125085</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="H13" s="7">
         <v>168</v>
@@ -4222,13 +4180,13 @@
         <v>124548</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="M13" s="7">
         <v>340</v>
@@ -4237,13 +4195,13 @@
         <v>249633</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4216,13 @@
         <v>599717</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="H14" s="7">
         <v>774</v>
@@ -4273,13 +4231,13 @@
         <v>527992</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="M14" s="7">
         <v>1578</v>
@@ -4288,13 +4246,13 @@
         <v>1127710</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P5_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58404B48-15BB-4264-A091-BB4E5418E7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FCC1A6E-AE82-4564-9C04-5AEE501951E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9D434FA2-8D5B-4A29-9B4E-4147C2D47922}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{68E9F630-1577-46EB-A9D7-B5183E15DA3B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
   <si>
     <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2007 (Tasa respuesta: 73,1%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,61 +74,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
     <t>42,13%</t>
   </si>
   <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
   </si>
   <si>
     <t>41,57%</t>
   </si>
   <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
     <t>57,87%</t>
   </si>
   <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
   </si>
   <si>
     <t>58,43%</t>
   </si>
   <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,781 +137,817 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
     <t>26,86%</t>
   </si>
   <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
   </si>
   <si>
     <t>26,58%</t>
   </si>
   <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
   </si>
   <si>
     <t>73,14%</t>
   </si>
   <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
   </si>
   <si>
     <t>73,42%</t>
   </si>
   <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
     <t>25,12%</t>
   </si>
   <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
   </si>
   <si>
     <t>26,06%</t>
   </si>
   <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
   </si>
   <si>
     <t>74,88%</t>
   </si>
   <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
   </si>
   <si>
     <t>73,94%</t>
   </si>
   <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
   </si>
   <si>
     <t>27,93%</t>
   </si>
   <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2012 (Tasa respuesta: 69,37%)</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2016 (Tasa respuesta: 75,92%)</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
   </si>
   <si>
     <t>31,61%</t>
   </si>
   <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
   </si>
   <si>
     <t>68,39%</t>
   </si>
   <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2012 (Tasa respuesta: 69,37%)</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2016 (Tasa respuesta: 75,92%)</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
     <t>62,63%</t>
   </si>
   <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
   </si>
   <si>
     <t>63,77%</t>
   </si>
   <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
   </si>
   <si>
     <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
   </si>
   <si>
     <t>15,76%</t>
   </si>
   <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
   </si>
   <si>
     <t>84,24%</t>
   </si>
   <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561107EE-FB54-4C97-8864-1B8A8DEA87E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E84670-0D64-4939-BE2F-E7D5ACE3E1A4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1441,10 +1477,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D4" s="7">
-        <v>21644</v>
+        <v>23180</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1456,10 +1492,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I4" s="7">
-        <v>23180</v>
+        <v>21644</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1492,10 +1528,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D5" s="7">
-        <v>29727</v>
+        <v>33282</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1507,10 +1543,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I5" s="7">
-        <v>33282</v>
+        <v>29727</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1543,25 +1579,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>83</v>
+      </c>
+      <c r="D6" s="7">
+        <v>56462</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>77</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>51371</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>83</v>
-      </c>
-      <c r="I6" s="7">
-        <v>56462</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1596,10 +1632,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D7" s="7">
-        <v>94974</v>
+        <v>81521</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1611,10 +1647,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="I7" s="7">
-        <v>81521</v>
+        <v>94974</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1647,10 +1683,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="D8" s="7">
-        <v>258662</v>
+        <v>228796</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1662,10 +1698,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="I8" s="7">
-        <v>228795</v>
+        <v>258662</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1680,7 +1716,7 @@
         <v>731</v>
       </c>
       <c r="N8" s="7">
-        <v>487457</v>
+        <v>487458</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1698,25 +1734,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>465</v>
+      </c>
+      <c r="D9" s="7">
+        <v>310317</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>532</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>353636</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>465</v>
-      </c>
-      <c r="I9" s="7">
-        <v>310316</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1731,7 +1767,7 @@
         <v>997</v>
       </c>
       <c r="N9" s="7">
-        <v>663952</v>
+        <v>663953</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1751,10 +1787,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>31029</v>
+        <v>36754</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1766,10 +1802,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I10" s="7">
-        <v>36754</v>
+        <v>31029</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1802,10 +1838,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D11" s="7">
-        <v>92513</v>
+        <v>99827</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1817,10 +1853,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I11" s="7">
-        <v>99827</v>
+        <v>92513</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1853,25 +1889,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>198</v>
+      </c>
+      <c r="D12" s="7">
+        <v>136581</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>183</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>123542</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>198</v>
-      </c>
-      <c r="I12" s="7">
-        <v>136581</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1906,10 +1942,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D13" s="7">
-        <v>147648</v>
+        <v>141455</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1921,10 +1957,10 @@
         <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="I13" s="7">
-        <v>141455</v>
+        <v>147647</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1957,10 +1993,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>570</v>
+        <v>536</v>
       </c>
       <c r="D14" s="7">
-        <v>380902</v>
+        <v>361904</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1972,10 +2008,10 @@
         <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="I14" s="7">
-        <v>361904</v>
+        <v>380902</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2008,25 +2044,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>746</v>
+      </c>
+      <c r="D15" s="7">
+        <v>503359</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>792</v>
       </c>
-      <c r="D15" s="7">
-        <v>528550</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>746</v>
-      </c>
       <c r="I15" s="7">
-        <v>503359</v>
+        <v>528549</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2074,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E96B40B-7929-4DEB-9132-28FF59E7A70B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DB8690-CC9C-42BD-BE69-CE94AF9F0CFA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2192,10 +2228,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>22342</v>
+        <v>19122</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>89</v>
@@ -2207,10 +2243,10 @@
         <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I4" s="7">
-        <v>19122</v>
+        <v>22342</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -2243,10 +2279,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D5" s="7">
-        <v>39748</v>
+        <v>36362</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>98</v>
@@ -2258,10 +2294,10 @@
         <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I5" s="7">
-        <v>36362</v>
+        <v>39748</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>101</v>
@@ -2294,25 +2330,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>80</v>
+      </c>
+      <c r="D6" s="7">
+        <v>55484</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>89</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>62090</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>80</v>
-      </c>
-      <c r="I6" s="7">
-        <v>55484</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2347,10 +2383,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D7" s="7">
-        <v>126269</v>
+        <v>115363</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>107</v>
@@ -2362,10 +2398,10 @@
         <v>109</v>
       </c>
       <c r="H7" s="7">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="I7" s="7">
-        <v>115363</v>
+        <v>126269</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>110</v>
@@ -2398,10 +2434,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="D8" s="7">
-        <v>213524</v>
+        <v>189290</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>116</v>
@@ -2413,10 +2449,10 @@
         <v>118</v>
       </c>
       <c r="H8" s="7">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="I8" s="7">
-        <v>189290</v>
+        <v>213524</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>119</v>
@@ -2449,25 +2485,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>441</v>
+      </c>
+      <c r="D9" s="7">
+        <v>304653</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>487</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>339793</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>441</v>
-      </c>
-      <c r="I9" s="7">
-        <v>304653</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2502,10 +2538,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D10" s="7">
-        <v>57530</v>
+        <v>46922</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>125</v>
@@ -2517,10 +2553,10 @@
         <v>127</v>
       </c>
       <c r="H10" s="7">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="I10" s="7">
-        <v>46922</v>
+        <v>57530</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>128</v>
@@ -2553,10 +2589,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D11" s="7">
-        <v>79368</v>
+        <v>69905</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>134</v>
@@ -2568,10 +2604,10 @@
         <v>136</v>
       </c>
       <c r="H11" s="7">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="I11" s="7">
-        <v>69905</v>
+        <v>79368</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>137</v>
@@ -2604,25 +2640,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>166</v>
+      </c>
+      <c r="D12" s="7">
+        <v>116827</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>193</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>136898</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>166</v>
-      </c>
-      <c r="I12" s="7">
-        <v>116827</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2657,34 +2693,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="D13" s="7">
-        <v>206142</v>
+        <v>181408</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>293</v>
+      </c>
+      <c r="I13" s="7">
+        <v>206142</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H13" s="7">
-        <v>256</v>
-      </c>
-      <c r="I13" s="7">
-        <v>181408</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>549</v>
@@ -2693,13 +2729,13 @@
         <v>387550</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,34 +2744,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>431</v>
+      </c>
+      <c r="D14" s="7">
+        <v>295557</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="7">
         <v>476</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>332639</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H14" s="7">
-        <v>431</v>
-      </c>
-      <c r="I14" s="7">
-        <v>295557</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>907</v>
@@ -2744,13 +2780,13 @@
         <v>628196</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,25 +2795,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>687</v>
+      </c>
+      <c r="D15" s="7">
+        <v>476965</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>769</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>538781</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>687</v>
-      </c>
-      <c r="I15" s="7">
-        <v>476965</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2825,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABA4456-8DDE-4AF7-A5DC-BB3A305AC009}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56661C2-FAF8-4994-835F-948DD0651CB4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2842,7 +2878,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2943,25 +2979,25 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>20814</v>
+        <v>12298</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>162</v>
       </c>
       <c r="H4" s="7">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I4" s="7">
-        <v>12298</v>
+        <v>20814</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>163</v>
@@ -2994,34 +3030,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>45</v>
+      </c>
+      <c r="D5" s="7">
+        <v>28343</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" s="7">
         <v>44</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>30423</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="7">
-        <v>45</v>
-      </c>
-      <c r="I5" s="7">
-        <v>28343</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>89</v>
@@ -3030,13 +3066,13 @@
         <v>58766</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,25 +3081,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>63</v>
+      </c>
+      <c r="D6" s="7">
+        <v>40641</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>75</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>51237</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>63</v>
-      </c>
-      <c r="I6" s="7">
-        <v>40641</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3098,34 +3134,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>181</v>
+      </c>
+      <c r="D7" s="7">
+        <v>118753</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H7" s="7">
         <v>195</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>132938</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="J7" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="I7" s="7">
-        <v>118753</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>376</v>
@@ -3134,13 +3170,13 @@
         <v>251691</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,34 +3185,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>343</v>
+      </c>
+      <c r="D8" s="7">
+        <v>228802</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" s="7">
         <v>349</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>246928</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H8" s="7">
-        <v>343</v>
-      </c>
-      <c r="I8" s="7">
-        <v>228802</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>692</v>
@@ -3185,13 +3221,13 @@
         <v>475730</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>23</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,25 +3236,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>524</v>
+      </c>
+      <c r="D9" s="7">
+        <v>347555</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>544</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>379866</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>524</v>
-      </c>
-      <c r="I9" s="7">
-        <v>347555</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3253,34 +3289,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>78</v>
+      </c>
+      <c r="D10" s="7">
+        <v>52411</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" s="7">
         <v>88</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>59642</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H10" s="7">
-        <v>78</v>
-      </c>
-      <c r="I10" s="7">
-        <v>52411</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>166</v>
@@ -3289,13 +3325,13 @@
         <v>112053</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,34 +3340,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>124</v>
+      </c>
+      <c r="D11" s="7">
+        <v>83616</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H11" s="7">
         <v>118</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>80288</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H11" s="7">
-        <v>124</v>
-      </c>
-      <c r="I11" s="7">
-        <v>83616</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>242</v>
@@ -3340,13 +3376,13 @@
         <v>163904</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,25 +3391,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>202</v>
+      </c>
+      <c r="D12" s="7">
+        <v>136027</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>206</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>139930</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>202</v>
-      </c>
-      <c r="I12" s="7">
-        <v>136027</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3408,34 +3444,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>277</v>
+      </c>
+      <c r="D13" s="7">
+        <v>183462</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H13" s="7">
         <v>314</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>213394</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H13" s="7">
-        <v>277</v>
-      </c>
-      <c r="I13" s="7">
-        <v>183462</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>143</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>591</v>
@@ -3444,13 +3480,13 @@
         <v>396856</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,34 +3495,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>512</v>
+      </c>
+      <c r="D14" s="7">
+        <v>340761</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H14" s="7">
         <v>511</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>357639</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H14" s="7">
-        <v>512</v>
-      </c>
-      <c r="I14" s="7">
-        <v>340761</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>1023</v>
@@ -3495,13 +3531,13 @@
         <v>698400</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,25 +3546,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>789</v>
+      </c>
+      <c r="D15" s="7">
+        <v>524223</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>825</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>571033</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>789</v>
-      </c>
-      <c r="I15" s="7">
-        <v>524223</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3576,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75389FE-6BD3-42E7-85B2-9D0FC2567127}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7373A151-02FB-481E-9394-A542E28FDDF4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3593,7 +3629,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3694,49 +3730,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7">
+        <v>7546</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H4" s="7">
         <v>19</v>
       </c>
-      <c r="D4" s="7">
-        <v>13727</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H4" s="7">
-        <v>13</v>
-      </c>
       <c r="I4" s="7">
-        <v>7901</v>
+        <v>14842</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>38</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
       </c>
       <c r="N4" s="7">
-        <v>21627</v>
+        <v>22388</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,49 +3781,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>56</v>
+      </c>
+      <c r="D5" s="7">
+        <v>47132</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H5" s="7">
         <v>64</v>
       </c>
-      <c r="D5" s="7">
-        <v>45030</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H5" s="7">
-        <v>56</v>
-      </c>
       <c r="I5" s="7">
-        <v>43301</v>
+        <v>47162</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>47</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>120</v>
       </c>
       <c r="N5" s="7">
-        <v>88332</v>
+        <v>94294</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,25 +3832,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>69</v>
+      </c>
+      <c r="D6" s="7">
+        <v>54678</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>83</v>
       </c>
-      <c r="D6" s="7">
-        <v>58757</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>69</v>
-      </c>
       <c r="I6" s="7">
-        <v>51202</v>
+        <v>62004</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3829,7 +3865,7 @@
         <v>152</v>
       </c>
       <c r="N6" s="7">
-        <v>109959</v>
+        <v>116682</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3849,49 +3885,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>112</v>
+      </c>
+      <c r="D7" s="7">
+        <v>103515</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H7" s="7">
         <v>110</v>
       </c>
-      <c r="D7" s="7">
-        <v>78870</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H7" s="7">
-        <v>112</v>
-      </c>
       <c r="I7" s="7">
-        <v>86001</v>
+        <v>81271</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>222</v>
       </c>
       <c r="N7" s="7">
-        <v>164871</v>
+        <v>184786</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,49 +3936,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>531</v>
+      </c>
+      <c r="D8" s="7">
+        <v>356995</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H8" s="7">
         <v>546</v>
       </c>
-      <c r="D8" s="7">
-        <v>413494</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H8" s="7">
-        <v>531</v>
-      </c>
       <c r="I8" s="7">
-        <v>363967</v>
+        <v>435348</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>1077</v>
       </c>
       <c r="N8" s="7">
-        <v>777462</v>
+        <v>792343</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,25 +3987,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>643</v>
+      </c>
+      <c r="D9" s="7">
+        <v>460510</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>656</v>
       </c>
-      <c r="D9" s="7">
-        <v>492364</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>643</v>
-      </c>
       <c r="I9" s="7">
-        <v>449968</v>
+        <v>516619</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3984,7 +4020,7 @@
         <v>1299</v>
       </c>
       <c r="N9" s="7">
-        <v>942333</v>
+        <v>977129</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4007,46 +4043,46 @@
         <v>43</v>
       </c>
       <c r="D10" s="7">
-        <v>32488</v>
+        <v>30009</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
       </c>
       <c r="I10" s="7">
-        <v>30646</v>
+        <v>34104</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>86</v>
       </c>
       <c r="N10" s="7">
-        <v>63134</v>
+        <v>64114</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,49 +4091,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>187</v>
+      </c>
+      <c r="D11" s="7">
+        <v>119542</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H11" s="7">
         <v>194</v>
       </c>
-      <c r="D11" s="7">
-        <v>141193</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H11" s="7">
-        <v>187</v>
-      </c>
       <c r="I11" s="7">
-        <v>120724</v>
+        <v>148301</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>381</v>
       </c>
       <c r="N11" s="7">
-        <v>261917</v>
+        <v>267843</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,25 +4142,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>230</v>
+      </c>
+      <c r="D12" s="7">
+        <v>149551</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>237</v>
       </c>
-      <c r="D12" s="7">
-        <v>173681</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>230</v>
-      </c>
       <c r="I12" s="7">
-        <v>151370</v>
+        <v>182405</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4139,7 +4175,7 @@
         <v>467</v>
       </c>
       <c r="N12" s="7">
-        <v>325051</v>
+        <v>331957</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4159,49 +4195,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>168</v>
+      </c>
+      <c r="D13" s="7">
+        <v>141069</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H13" s="7">
         <v>172</v>
       </c>
-      <c r="D13" s="7">
-        <v>125085</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H13" s="7">
-        <v>168</v>
-      </c>
       <c r="I13" s="7">
-        <v>124548</v>
+        <v>130218</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>340</v>
       </c>
       <c r="N13" s="7">
-        <v>249633</v>
+        <v>271288</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,49 +4246,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>774</v>
+      </c>
+      <c r="D14" s="7">
+        <v>523669</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H14" s="7">
         <v>804</v>
       </c>
-      <c r="D14" s="7">
-        <v>599717</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H14" s="7">
-        <v>774</v>
-      </c>
       <c r="I14" s="7">
-        <v>527992</v>
+        <v>630810</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>1578</v>
       </c>
       <c r="N14" s="7">
-        <v>1127710</v>
+        <v>1154479</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,25 +4297,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>942</v>
+      </c>
+      <c r="D15" s="7">
+        <v>664738</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>976</v>
       </c>
-      <c r="D15" s="7">
-        <v>724802</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>942</v>
-      </c>
       <c r="I15" s="7">
-        <v>652540</v>
+        <v>761028</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4294,7 +4330,7 @@
         <v>1918</v>
       </c>
       <c r="N15" s="7">
-        <v>1377343</v>
+        <v>1425767</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
